--- a/Gyomu/Format/税抜内訳書.xlsx
+++ b/Gyomu/Format/税抜内訳書.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="1380" yWindow="705" windowWidth="13455" windowHeight="13185"/>
+    <workbookView xWindow="-7215" yWindow="4080" windowWidth="15195" windowHeight="15270"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -423,6 +423,36 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -449,36 +479,6 @@
     </xf>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -788,7 +788,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -799,7 +799,7 @@
   <dimension ref="A1:I49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -826,17 +826,17 @@
       <c r="I1" s="6"/>
     </row>
     <row r="2" spans="1:9" ht="22.5" customHeight="1">
-      <c r="A2" s="2"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="32" t="s">
+      <c r="A2" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
     </row>
     <row r="3" spans="1:9" ht="15" customHeight="1">
       <c r="A3" s="2"/>
@@ -874,274 +874,254 @@
       <c r="I5" s="8"/>
     </row>
     <row r="6" spans="1:9" ht="15" customHeight="1">
-      <c r="A6" s="39"/>
-      <c r="B6" s="40" t="s">
+      <c r="A6" s="49"/>
+      <c r="B6" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="33" t="s">
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="G6" s="35" t="s">
+      <c r="G6" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="H6" s="36" t="s">
+      <c r="H6" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="I6" s="36" t="s">
+      <c r="I6" s="46" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1">
-      <c r="A7" s="39"/>
-      <c r="B7" s="37" t="s">
+      <c r="A7" s="49"/>
+      <c r="B7" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="38"/>
+      <c r="C7" s="48"/>
       <c r="D7" s="23" t="s">
         <v>7</v>
       </c>
       <c r="E7" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="34"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="36"/>
-      <c r="I7" s="36"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="46"/>
     </row>
     <row r="8" spans="1:9" ht="15" customHeight="1">
-      <c r="A8" s="39">
-        <v>1</v>
-      </c>
+      <c r="A8" s="49"/>
       <c r="B8" s="20"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="25"/>
       <c r="F8" s="2"/>
-      <c r="G8" s="41"/>
+      <c r="G8" s="32"/>
       <c r="H8" s="10"/>
-      <c r="I8" s="42"/>
+      <c r="I8" s="33"/>
     </row>
     <row r="9" spans="1:9" ht="15" customHeight="1">
-      <c r="A9" s="39"/>
+      <c r="A9" s="49"/>
       <c r="B9" s="18"/>
       <c r="C9" s="12"/>
       <c r="D9" s="22"/>
       <c r="E9" s="26"/>
       <c r="F9" s="22"/>
       <c r="G9" s="22"/>
-      <c r="H9" s="43"/>
-      <c r="I9" s="44"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="35"/>
     </row>
     <row r="10" spans="1:9" ht="15" customHeight="1">
-      <c r="A10" s="39">
-        <v>2</v>
-      </c>
+      <c r="A10" s="49"/>
       <c r="B10" s="20"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="25"/>
       <c r="F10" s="2"/>
-      <c r="G10" s="41"/>
+      <c r="G10" s="32"/>
       <c r="H10" s="10"/>
-      <c r="I10" s="42"/>
+      <c r="I10" s="33"/>
     </row>
     <row r="11" spans="1:9" ht="15" customHeight="1">
-      <c r="A11" s="39"/>
+      <c r="A11" s="49"/>
       <c r="B11" s="19"/>
       <c r="C11" s="3"/>
       <c r="D11" s="9"/>
       <c r="E11" s="27"/>
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
-      <c r="H11" s="45"/>
-      <c r="I11" s="46"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="37"/>
     </row>
     <row r="12" spans="1:9" ht="15" customHeight="1">
-      <c r="A12" s="39">
-        <v>3</v>
-      </c>
+      <c r="A12" s="49"/>
       <c r="B12" s="21"/>
       <c r="C12" s="14"/>
       <c r="D12" s="14"/>
       <c r="E12" s="28"/>
       <c r="F12" s="31"/>
-      <c r="G12" s="47"/>
+      <c r="G12" s="38"/>
       <c r="H12" s="15"/>
-      <c r="I12" s="48"/>
+      <c r="I12" s="39"/>
     </row>
     <row r="13" spans="1:9" ht="15" customHeight="1">
-      <c r="A13" s="39"/>
+      <c r="A13" s="49"/>
       <c r="B13" s="18"/>
       <c r="C13" s="12"/>
       <c r="D13" s="12"/>
       <c r="E13" s="29"/>
       <c r="F13" s="22"/>
       <c r="G13" s="22"/>
-      <c r="H13" s="43"/>
-      <c r="I13" s="44"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="35"/>
     </row>
     <row r="14" spans="1:9" ht="15" customHeight="1">
-      <c r="A14" s="39">
-        <v>4</v>
-      </c>
+      <c r="A14" s="49"/>
       <c r="B14" s="20"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="25"/>
       <c r="F14" s="2"/>
-      <c r="G14" s="41"/>
+      <c r="G14" s="32"/>
       <c r="H14" s="10"/>
-      <c r="I14" s="42"/>
+      <c r="I14" s="33"/>
     </row>
     <row r="15" spans="1:9" ht="15" customHeight="1">
-      <c r="A15" s="39"/>
+      <c r="A15" s="49"/>
       <c r="B15" s="16"/>
       <c r="C15" s="1"/>
       <c r="D15" s="2"/>
       <c r="E15" s="25"/>
       <c r="F15" s="2"/>
       <c r="G15" s="9"/>
-      <c r="H15" s="45"/>
-      <c r="I15" s="46"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="37"/>
     </row>
     <row r="16" spans="1:9" ht="15" customHeight="1">
-      <c r="A16" s="39">
-        <v>5</v>
-      </c>
+      <c r="A16" s="49"/>
       <c r="B16" s="21"/>
       <c r="C16" s="14"/>
       <c r="D16" s="14"/>
       <c r="E16" s="28"/>
       <c r="F16" s="31"/>
-      <c r="G16" s="47"/>
+      <c r="G16" s="38"/>
       <c r="H16" s="15"/>
-      <c r="I16" s="48"/>
+      <c r="I16" s="39"/>
     </row>
     <row r="17" spans="1:9" ht="15" customHeight="1">
-      <c r="A17" s="39"/>
+      <c r="A17" s="49"/>
       <c r="B17" s="18"/>
       <c r="C17" s="12"/>
       <c r="D17" s="22"/>
       <c r="E17" s="29"/>
       <c r="F17" s="22"/>
       <c r="G17" s="22"/>
-      <c r="H17" s="43"/>
-      <c r="I17" s="44"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="35"/>
     </row>
     <row r="18" spans="1:9" ht="15" customHeight="1">
-      <c r="A18" s="39">
-        <v>6</v>
-      </c>
+      <c r="A18" s="49"/>
       <c r="B18" s="20"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="25"/>
       <c r="F18" s="2"/>
-      <c r="G18" s="41"/>
+      <c r="G18" s="32"/>
       <c r="H18" s="10"/>
-      <c r="I18" s="42"/>
+      <c r="I18" s="33"/>
     </row>
     <row r="19" spans="1:9" ht="15" customHeight="1">
-      <c r="A19" s="39"/>
+      <c r="A19" s="49"/>
       <c r="B19" s="16"/>
       <c r="C19" s="1"/>
       <c r="D19" s="2"/>
       <c r="E19" s="30"/>
       <c r="F19" s="2"/>
       <c r="G19" s="9"/>
-      <c r="H19" s="45"/>
-      <c r="I19" s="46"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="37"/>
     </row>
     <row r="20" spans="1:9" ht="15" customHeight="1">
-      <c r="A20" s="39">
-        <v>7</v>
-      </c>
+      <c r="A20" s="49"/>
       <c r="B20" s="21"/>
       <c r="C20" s="14"/>
       <c r="D20" s="14"/>
       <c r="E20" s="28"/>
       <c r="F20" s="31"/>
-      <c r="G20" s="47"/>
+      <c r="G20" s="38"/>
       <c r="H20" s="15"/>
-      <c r="I20" s="48"/>
+      <c r="I20" s="39"/>
     </row>
     <row r="21" spans="1:9" ht="15" customHeight="1">
-      <c r="A21" s="39"/>
+      <c r="A21" s="49"/>
       <c r="B21" s="18"/>
       <c r="C21" s="12"/>
       <c r="D21" s="22"/>
       <c r="E21" s="29"/>
       <c r="F21" s="22"/>
       <c r="G21" s="22"/>
-      <c r="H21" s="43"/>
-      <c r="I21" s="44"/>
+      <c r="H21" s="34"/>
+      <c r="I21" s="35"/>
     </row>
     <row r="22" spans="1:9" ht="15" customHeight="1">
-      <c r="A22" s="39">
-        <v>8</v>
-      </c>
+      <c r="A22" s="49"/>
       <c r="B22" s="20"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="25"/>
       <c r="F22" s="2"/>
-      <c r="G22" s="41"/>
+      <c r="G22" s="32"/>
       <c r="H22" s="10"/>
-      <c r="I22" s="42"/>
+      <c r="I22" s="33"/>
     </row>
     <row r="23" spans="1:9" ht="15" customHeight="1">
-      <c r="A23" s="39"/>
+      <c r="A23" s="49"/>
       <c r="B23" s="16"/>
       <c r="C23" s="1"/>
       <c r="D23" s="22"/>
       <c r="E23" s="25"/>
       <c r="F23" s="2"/>
       <c r="G23" s="9"/>
-      <c r="H23" s="45"/>
-      <c r="I23" s="46"/>
+      <c r="H23" s="36"/>
+      <c r="I23" s="37"/>
     </row>
     <row r="24" spans="1:9" ht="15" customHeight="1">
-      <c r="A24" s="39">
-        <v>9</v>
-      </c>
+      <c r="A24" s="49"/>
       <c r="B24" s="21"/>
       <c r="C24" s="14"/>
       <c r="D24" s="14"/>
       <c r="E24" s="28"/>
       <c r="F24" s="31"/>
-      <c r="G24" s="47"/>
+      <c r="G24" s="38"/>
       <c r="H24" s="15"/>
-      <c r="I24" s="48"/>
+      <c r="I24" s="39"/>
     </row>
     <row r="25" spans="1:9" ht="15" customHeight="1">
-      <c r="A25" s="39"/>
+      <c r="A25" s="49"/>
       <c r="B25" s="18"/>
       <c r="C25" s="12"/>
       <c r="D25" s="22"/>
       <c r="E25" s="29"/>
       <c r="F25" s="22"/>
       <c r="G25" s="22"/>
-      <c r="H25" s="43"/>
-      <c r="I25" s="44"/>
+      <c r="H25" s="34"/>
+      <c r="I25" s="35"/>
     </row>
     <row r="26" spans="1:9" ht="15" customHeight="1">
-      <c r="A26" s="39">
-        <v>10</v>
-      </c>
+      <c r="A26" s="49"/>
       <c r="B26" s="20"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="25"/>
       <c r="F26" s="2"/>
-      <c r="G26" s="41"/>
+      <c r="G26" s="32"/>
       <c r="H26" s="10"/>
-      <c r="I26" s="42"/>
+      <c r="I26" s="33"/>
     </row>
     <row r="27" spans="1:9" ht="15" customHeight="1">
-      <c r="A27" s="39"/>
+      <c r="A27" s="49"/>
       <c r="B27" s="16"/>
       <c r="C27" s="1"/>
       <c r="D27" s="22"/>
@@ -1149,36 +1129,32 @@
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
       <c r="H27" s="8"/>
-      <c r="I27" s="46"/>
+      <c r="I27" s="37"/>
     </row>
     <row r="28" spans="1:9" ht="15" customHeight="1">
-      <c r="A28" s="39">
-        <v>11</v>
-      </c>
+      <c r="A28" s="49"/>
       <c r="B28" s="13"/>
       <c r="C28" s="14"/>
       <c r="D28" s="14"/>
       <c r="E28" s="28"/>
       <c r="F28" s="31"/>
       <c r="G28" s="31"/>
-      <c r="H28" s="49"/>
-      <c r="I28" s="50"/>
+      <c r="H28" s="40"/>
+      <c r="I28" s="41"/>
     </row>
     <row r="29" spans="1:9" ht="15" customHeight="1">
-      <c r="A29" s="39"/>
+      <c r="A29" s="49"/>
       <c r="B29" s="11"/>
       <c r="C29" s="12"/>
       <c r="D29" s="12"/>
       <c r="E29" s="29"/>
       <c r="F29" s="22"/>
       <c r="G29" s="22"/>
-      <c r="H29" s="43"/>
-      <c r="I29" s="44"/>
+      <c r="H29" s="34"/>
+      <c r="I29" s="35"/>
     </row>
     <row r="30" spans="1:9" ht="15" customHeight="1">
-      <c r="A30" s="39">
-        <v>12</v>
-      </c>
+      <c r="A30" s="49"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -1186,10 +1162,10 @@
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="8"/>
-      <c r="I30" s="46"/>
+      <c r="I30" s="37"/>
     </row>
     <row r="31" spans="1:9" ht="15" customHeight="1">
-      <c r="A31" s="39"/>
+      <c r="A31" s="49"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -1197,36 +1173,32 @@
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
       <c r="H31" s="8"/>
-      <c r="I31" s="46"/>
+      <c r="I31" s="37"/>
     </row>
     <row r="32" spans="1:9" ht="15" customHeight="1">
-      <c r="A32" s="39">
-        <v>13</v>
-      </c>
+      <c r="A32" s="49"/>
       <c r="B32" s="13"/>
       <c r="C32" s="14"/>
       <c r="D32" s="14"/>
       <c r="E32" s="28"/>
       <c r="F32" s="31"/>
       <c r="G32" s="31"/>
-      <c r="H32" s="49"/>
-      <c r="I32" s="50"/>
+      <c r="H32" s="40"/>
+      <c r="I32" s="41"/>
     </row>
     <row r="33" spans="1:9" ht="15" customHeight="1">
-      <c r="A33" s="39"/>
+      <c r="A33" s="49"/>
       <c r="B33" s="11"/>
       <c r="C33" s="12"/>
       <c r="D33" s="12"/>
       <c r="E33" s="29"/>
       <c r="F33" s="22"/>
       <c r="G33" s="22"/>
-      <c r="H33" s="43"/>
-      <c r="I33" s="44"/>
+      <c r="H33" s="34"/>
+      <c r="I33" s="35"/>
     </row>
     <row r="34" spans="1:9" ht="15" customHeight="1">
-      <c r="A34" s="39">
-        <v>14</v>
-      </c>
+      <c r="A34" s="49"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -1234,10 +1206,10 @@
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
       <c r="H34" s="8"/>
-      <c r="I34" s="46"/>
+      <c r="I34" s="37"/>
     </row>
     <row r="35" spans="1:9" ht="15" customHeight="1">
-      <c r="A35" s="39"/>
+      <c r="A35" s="49"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -1245,36 +1217,32 @@
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
       <c r="H35" s="8"/>
-      <c r="I35" s="46"/>
+      <c r="I35" s="37"/>
     </row>
     <row r="36" spans="1:9" ht="15" customHeight="1">
-      <c r="A36" s="39">
-        <v>15</v>
-      </c>
+      <c r="A36" s="49"/>
       <c r="B36" s="13"/>
       <c r="C36" s="14"/>
       <c r="D36" s="14"/>
       <c r="E36" s="28"/>
       <c r="F36" s="31"/>
       <c r="G36" s="31"/>
-      <c r="H36" s="49"/>
-      <c r="I36" s="50"/>
+      <c r="H36" s="40"/>
+      <c r="I36" s="41"/>
     </row>
     <row r="37" spans="1:9" ht="15" customHeight="1">
-      <c r="A37" s="39"/>
+      <c r="A37" s="49"/>
       <c r="B37" s="11"/>
       <c r="C37" s="12"/>
       <c r="D37" s="12"/>
       <c r="E37" s="29"/>
       <c r="F37" s="22"/>
       <c r="G37" s="22"/>
-      <c r="H37" s="43"/>
-      <c r="I37" s="44"/>
+      <c r="H37" s="34"/>
+      <c r="I37" s="35"/>
     </row>
     <row r="38" spans="1:9" ht="15" customHeight="1">
-      <c r="A38" s="39">
-        <v>16</v>
-      </c>
+      <c r="A38" s="49"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -1282,10 +1250,10 @@
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
       <c r="H38" s="8"/>
-      <c r="I38" s="46"/>
+      <c r="I38" s="37"/>
     </row>
     <row r="39" spans="1:9" ht="15" customHeight="1">
-      <c r="A39" s="39"/>
+      <c r="A39" s="49"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -1293,36 +1261,32 @@
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
       <c r="H39" s="8"/>
-      <c r="I39" s="46"/>
+      <c r="I39" s="37"/>
     </row>
     <row r="40" spans="1:9" ht="15" customHeight="1">
-      <c r="A40" s="39">
-        <v>17</v>
-      </c>
+      <c r="A40" s="49"/>
       <c r="B40" s="13"/>
       <c r="C40" s="14"/>
       <c r="D40" s="14"/>
       <c r="E40" s="28"/>
       <c r="F40" s="31"/>
       <c r="G40" s="31"/>
-      <c r="H40" s="49"/>
-      <c r="I40" s="50"/>
+      <c r="H40" s="40"/>
+      <c r="I40" s="41"/>
     </row>
     <row r="41" spans="1:9" ht="15" customHeight="1">
-      <c r="A41" s="39"/>
+      <c r="A41" s="49"/>
       <c r="B41" s="11"/>
       <c r="C41" s="12"/>
       <c r="D41" s="12"/>
       <c r="E41" s="29"/>
       <c r="F41" s="22"/>
       <c r="G41" s="22"/>
-      <c r="H41" s="43"/>
-      <c r="I41" s="44"/>
+      <c r="H41" s="34"/>
+      <c r="I41" s="35"/>
     </row>
     <row r="42" spans="1:9" ht="15" customHeight="1">
-      <c r="A42" s="39">
-        <v>18</v>
-      </c>
+      <c r="A42" s="49"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -1330,10 +1294,10 @@
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
       <c r="H42" s="8"/>
-      <c r="I42" s="46"/>
+      <c r="I42" s="37"/>
     </row>
     <row r="43" spans="1:9" ht="15" customHeight="1">
-      <c r="A43" s="39"/>
+      <c r="A43" s="49"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -1341,55 +1305,51 @@
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
       <c r="H43" s="8"/>
-      <c r="I43" s="46"/>
+      <c r="I43" s="37"/>
     </row>
     <row r="44" spans="1:9" ht="15" customHeight="1">
-      <c r="A44" s="39">
-        <v>19</v>
-      </c>
+      <c r="A44" s="49"/>
       <c r="B44" s="13"/>
       <c r="C44" s="14"/>
       <c r="D44" s="14"/>
       <c r="E44" s="28"/>
       <c r="F44" s="31"/>
       <c r="G44" s="31"/>
-      <c r="H44" s="49"/>
-      <c r="I44" s="50"/>
+      <c r="H44" s="40"/>
+      <c r="I44" s="41"/>
     </row>
     <row r="45" spans="1:9" ht="15" customHeight="1">
-      <c r="A45" s="39"/>
+      <c r="A45" s="49"/>
       <c r="B45" s="11"/>
       <c r="C45" s="12"/>
       <c r="D45" s="12"/>
       <c r="E45" s="29"/>
       <c r="F45" s="22"/>
       <c r="G45" s="22"/>
-      <c r="H45" s="43"/>
-      <c r="I45" s="44"/>
+      <c r="H45" s="34"/>
+      <c r="I45" s="35"/>
     </row>
     <row r="46" spans="1:9" ht="15" customHeight="1">
-      <c r="A46" s="39">
-        <v>20</v>
-      </c>
+      <c r="A46" s="49"/>
       <c r="B46" s="13"/>
       <c r="C46" s="14"/>
       <c r="D46" s="14"/>
       <c r="E46" s="28"/>
       <c r="F46" s="31"/>
       <c r="G46" s="31"/>
-      <c r="H46" s="49"/>
-      <c r="I46" s="50"/>
+      <c r="H46" s="40"/>
+      <c r="I46" s="41"/>
     </row>
     <row r="47" spans="1:9" ht="15" customHeight="1">
-      <c r="A47" s="39"/>
+      <c r="A47" s="49"/>
       <c r="B47" s="11"/>
       <c r="C47" s="12"/>
       <c r="D47" s="12"/>
       <c r="E47" s="29"/>
       <c r="F47" s="22"/>
       <c r="G47" s="22"/>
-      <c r="H47" s="43"/>
-      <c r="I47" s="44"/>
+      <c r="H47" s="34"/>
+      <c r="I47" s="35"/>
     </row>
     <row r="48" spans="1:9" ht="15" customHeight="1">
       <c r="A48" s="1"/>
@@ -1443,16 +1403,16 @@
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A12:A13"/>
-    <mergeCell ref="C2:G2"/>
     <mergeCell ref="F6:F7"/>
     <mergeCell ref="G6:G7"/>
     <mergeCell ref="H6:H7"/>
     <mergeCell ref="I6:I7"/>
     <mergeCell ref="B7:C7"/>
+    <mergeCell ref="A2:I2"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
-  <printOptions horizontalCentered="1" verticalCentered="1"/>
-  <pageMargins left="0" right="0" top="0" bottom="0.74803149606299213" header="0" footer="0"/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0" right="0" top="0.78740157480314965" bottom="0.74803149606299213" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="90" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>